--- a/q1_dataFiles/05_Standardfehler_Konfidenzintervalle_Zusatzaufgabe.xlsx
+++ b/q1_dataFiles/05_Standardfehler_Konfidenzintervalle_Zusatzaufgabe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D7518-20FF-4700-B791-68A66F41CA5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B4C029-21E3-4EC8-9D5C-F89729F67504}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -193,21 +190,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
+              <a:rPr lang="de-DE">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Problemlösefähigkeit</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="de-DE"/>
-            </a:br>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Mittelwert</a:t>
+              <a:rPr lang="de-DE" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> (Mittelwert und 95% KI)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> und 95% Konfidenzintervall</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="de-DE">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -226,10 +228,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -243,30 +242,97 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
+            <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Lösung!$F$16:$G$16</c:f>
+                <c:f>Lösung!$F$19:$G$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -281,7 +347,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Lösung!$F$16:$G$16</c:f>
+                <c:f>Lösung!$F$19:$G$19</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="2"/>
@@ -298,17 +364,14 @@
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:strRef>
               <c:f>Lösung!$F$10:$G$10</c:f>
               <c:strCache>
@@ -321,8 +384,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Lösung!$F$11:$G$11</c:f>
               <c:numCache>
@@ -336,83 +399,34 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8941-4266-8DDD-71108EC132EF}"/>
+              <c16:uniqueId val="{00000000-6ED7-464F-9C32-DDF4FB58E98A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="236882608"/>
-        <c:axId val="236883392"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="236882608"/>
+        <c:axId val="1060702352"/>
+        <c:axId val="1061547568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1060702352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="236883392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="236883392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -431,15 +445,101 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1061547568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1061547568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="130"/>
+          <c:min val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Problemlösefähigkeit</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -450,10 +550,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -463,9 +560,9 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236882608"/>
+        <c:crossAx val="1060702352"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -477,6 +574,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -553,7 +657,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -580,8 +684,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -682,7 +786,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -714,10 +818,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -757,22 +861,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -877,8 +982,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1010,19 +1115,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1036,6 +1142,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1060,28 +1177,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="3" name="Diagramm 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E92BAFA-2643-4ED6-A6F2-60ACBD707945}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CCFCAF-A70F-41FD-9AF8-CB8F4058F1B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1871,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EBFA1E-E4A5-4705-B689-F29818FCC4C0}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
